--- a/outcome/fig_3_national_trend.xlsx
+++ b/outcome/fig_3_national_trend.xlsx
@@ -21,616 +21,616 @@
     <t xml:space="preserve">val</t>
   </si>
   <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei Darussalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao People's Democratic Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan (Province of China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
   </si>
   <si>
     <t xml:space="preserve">Timor-Leste</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratic People's Republic of Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokelau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Türkiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Virgin Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
     <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia (Federated States of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
   </si>
   <si>
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan (Province of China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei Darussalam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Republic of Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Republic of Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
+    <t xml:space="preserve">Yemen</t>
   </si>
   <si>
     <t xml:space="preserve">Zambia</t>
   </si>
   <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eswatini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabo Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Marino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokelau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Virgin Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuvalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran (Islamic Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Türkiye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Republic of Tanzania</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.84</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3.57</v>
+        <v>-9.38</v>
       </c>
     </row>
     <row r="4">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3.32</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="5">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.27</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="6">
@@ -1007,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.23</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="7">
@@ -1015,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.54</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="8">
@@ -1023,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.56</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="9">
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>2.39</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="10">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.72</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="11">
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>2.28</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
@@ -1055,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1.83</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
@@ -1063,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1.52</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="14">
@@ -1071,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.97</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="15">
@@ -1079,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.99</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="17">
@@ -1095,7 +1095,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.84</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="18">
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1.28</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="19">
@@ -1111,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1.2</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="20">
@@ -1119,7 +1119,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="21">
@@ -1127,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.71</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="22">
@@ -1135,7 +1135,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.41</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="23">
@@ -1143,7 +1143,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1.25</v>
+        <v>-12.27</v>
       </c>
     </row>
     <row r="24">
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1.93</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="25">
@@ -1159,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.23</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="26">
@@ -1167,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>-10.15</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="27">
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.31</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="28">
@@ -1183,7 +1183,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.56</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="29">
@@ -1191,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.27</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="30">
@@ -1199,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>-5.04</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="31">
@@ -1207,7 +1207,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.66</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="32">
@@ -1215,7 +1215,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>-3.31</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="33">
@@ -1223,7 +1223,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>-4</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="34">
@@ -1231,7 +1231,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>3.75</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="35">
@@ -1239,7 +1239,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>1.66</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="36">
@@ -1247,7 +1247,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.17</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="37">
@@ -1255,7 +1255,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>-9.43</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="38">
@@ -1263,7 +1263,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>-6.81</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="39">
@@ -1271,7 +1271,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.54</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="40">
@@ -1279,7 +1279,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>-7.14</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="41">
@@ -1287,7 +1287,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>-7.97</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="42">
@@ -1295,7 +1295,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.44</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="43">
@@ -1303,7 +1303,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>1.32</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="44">
@@ -1311,7 +1311,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>-6.03</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="45">
@@ -1319,7 +1319,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.37</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="46">
@@ -1327,7 +1327,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>7.63</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="47">
@@ -1335,7 +1335,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.21</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="48">
@@ -1343,7 +1343,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>-3.83</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="49">
@@ -1351,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0.22</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="50">
@@ -1359,7 +1359,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.69</v>
+        <v>-10.54</v>
       </c>
     </row>
     <row r="51">
@@ -1367,7 +1367,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.99</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="52">
@@ -1375,7 +1375,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>1.48</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="53">
@@ -1383,7 +1383,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.94</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="54">
@@ -1391,7 +1391,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>-3.07</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="55">
@@ -1399,7 +1399,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>-8.22</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="56">
@@ -1407,7 +1407,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.91</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="57">
@@ -1415,7 +1415,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>-13.76</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="58">
@@ -1423,7 +1423,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>-11.92</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="59">
@@ -1431,7 +1431,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0.79</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="60">
@@ -1439,7 +1439,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0.21</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="61">
@@ -1447,7 +1447,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>1.78</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="62">
@@ -1455,7 +1455,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>-3.82</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="63">
@@ -1463,7 +1463,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>-6.5</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="64">
@@ -1471,7 +1471,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.23</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="65">
@@ -1479,7 +1479,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>1.16</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="66">
@@ -1487,7 +1487,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>-4.5</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="67">
@@ -1495,7 +1495,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>-3.13</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="68">
@@ -1503,7 +1503,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.34</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="69">
@@ -1511,7 +1511,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>3.17</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="70">
@@ -1519,7 +1519,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>1.54</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="71">
@@ -1527,7 +1527,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>0.76</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="72">
@@ -1535,7 +1535,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0.65</v>
+        <v>-13.46</v>
       </c>
     </row>
     <row r="73">
@@ -1543,7 +1543,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.94</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="74">
@@ -1551,7 +1551,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>1.22</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="75">
@@ -1559,7 +1559,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>1.53</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="76">
@@ -1567,7 +1567,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>0.32</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="77">
@@ -1575,7 +1575,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>-3.44</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="78">
@@ -1583,7 +1583,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>6.09</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="79">
@@ -1591,7 +1591,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.3</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="80">
@@ -1599,7 +1599,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>1.29</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="81">
@@ -1607,7 +1607,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.75</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="82">
@@ -1615,7 +1615,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>-3.45</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="83">
@@ -1623,7 +1623,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>1.96</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="84">
@@ -1631,7 +1631,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>3.93</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="85">
@@ -1639,7 +1639,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>1.35</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="86">
@@ -1647,7 +1647,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>1.9</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="87">
@@ -1655,7 +1655,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>2.31</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="88">
@@ -1663,7 +1663,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>-4.52</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="89">
@@ -1671,7 +1671,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.42</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="90">
@@ -1679,7 +1679,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>-3.4</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="91">
@@ -1687,7 +1687,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>0.86</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="92">
@@ -1695,7 +1695,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.08</v>
+        <v>-7.95</v>
       </c>
     </row>
     <row r="93">
@@ -1703,7 +1703,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="94">
@@ -1711,7 +1711,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>2.22</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="95">
@@ -1719,7 +1719,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>4.64</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="96">
@@ -1727,7 +1727,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>1.05</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="97">
@@ -1735,7 +1735,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>0.86</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="98">
@@ -1743,7 +1743,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>-3.38</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="99">
@@ -1751,7 +1751,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>1.38</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="100">
@@ -1759,7 +1759,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.78</v>
+        <v>-10.98</v>
       </c>
     </row>
     <row r="101">
@@ -1767,7 +1767,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="102">
@@ -1775,7 +1775,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>1.09</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="103">
@@ -1783,7 +1783,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>1.6</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="104">
@@ -1791,7 +1791,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.44</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>2.22</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>1.61</v>
+        <v>-6.51</v>
       </c>
     </row>
     <row r="107">
@@ -1815,7 +1815,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.69</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="108">
@@ -1823,7 +1823,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>2.57</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="109">
@@ -1831,7 +1831,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>0.61</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="110">
@@ -1839,7 +1839,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>2.4</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="111">
@@ -1847,7 +1847,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>1.04</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="112">
@@ -1855,7 +1855,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.81</v>
+        <v>-5.95</v>
       </c>
     </row>
     <row r="113">
@@ -1863,7 +1863,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114">
@@ -1871,7 +1871,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.51</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="115">
@@ -1879,21 +1879,23 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.63</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116"/>
+      <c r="B116" t="n">
+        <v>-0.87</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.79</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="118">
@@ -1901,7 +1903,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>-3.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="119">
@@ -1909,7 +1911,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="n">
-        <v>-2.28</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="120">
@@ -1917,7 +1919,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>3.89</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="121">
@@ -1925,7 +1927,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="122">
@@ -1933,35 +1935,39 @@
         <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>6.67</v>
+        <v>-6.92</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="B123"/>
+      <c r="B123" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>1.92</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125"/>
+      <c r="B125" t="n">
+        <v>-5.41</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.76</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="127">
@@ -1969,7 +1975,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.93</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="128">
@@ -1977,7 +1983,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="129">
@@ -1985,7 +1991,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>0.57</v>
+        <v>-14.57</v>
       </c>
     </row>
     <row r="130">
@@ -1993,7 +1999,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>2.6</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="131">
@@ -2001,7 +2007,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>-12.01</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132">
@@ -2009,7 +2015,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>-2.91</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="133">
@@ -2017,7 +2023,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>3.63</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="134">
@@ -2025,7 +2031,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>5.61</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="135">
@@ -2033,7 +2039,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.06</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="136">
@@ -2041,7 +2047,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>4.01</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="137">
@@ -2049,7 +2055,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.74</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="138">
@@ -2057,7 +2063,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>-2</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="139">
@@ -2065,7 +2071,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>0.51</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="140">
@@ -2073,7 +2079,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>1.45</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="141">
@@ -2081,7 +2087,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="n">
-        <v>-2.29</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="142">
@@ -2089,7 +2095,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="n">
-        <v>-5.89</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="143">
@@ -2097,7 +2103,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>0.39</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="144">
@@ -2105,7 +2111,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="n">
-        <v>4.74</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="145">
@@ -2113,7 +2119,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>3.67</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="146">
@@ -2121,7 +2127,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>-2.48</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="147">
@@ -2129,7 +2135,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>-10.82</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="148">
@@ -2137,7 +2143,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="149">
@@ -2145,7 +2151,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="n">
-        <v>3.37</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="150">
@@ -2153,7 +2159,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>0.05</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="151">
@@ -2161,7 +2167,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="152">
@@ -2169,7 +2175,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="n">
-        <v>3.71</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="153">
@@ -2177,7 +2183,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="n">
-        <v>-4.34</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="154">
@@ -2185,7 +2191,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>3.66</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="155">
@@ -2193,7 +2199,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="n">
-        <v>-2.08</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -2201,7 +2207,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.41</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="157">
@@ -2209,7 +2215,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>0.75</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="158">
@@ -2217,7 +2223,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.34</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="159">
@@ -2225,7 +2231,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>1.11</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="160">
@@ -2233,7 +2239,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.44</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="161">
@@ -2241,7 +2247,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="n">
-        <v>0.94</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="162">
@@ -2249,7 +2255,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="163">
@@ -2257,7 +2263,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="n">
-        <v>-2.79</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="164">
@@ -2265,7 +2271,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>1.36</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="165">
@@ -2273,7 +2279,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>0.24</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="166">
@@ -2281,7 +2287,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="n">
-        <v>-2.03</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="167">
@@ -2289,7 +2295,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.01</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="168">
@@ -2297,7 +2303,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="n">
-        <v>0.88</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="169">
@@ -2305,7 +2311,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="n">
-        <v>3.89</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="170">
@@ -2313,7 +2319,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.59</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="171">
@@ -2321,7 +2327,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.81</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="172">
@@ -2329,7 +2335,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="n">
-        <v>0.94</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="173">
@@ -2337,7 +2343,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>2.22</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="174">
@@ -2345,7 +2351,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>4.98</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="175">
@@ -2353,7 +2359,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="n">
-        <v>3.13</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="176">
@@ -2361,7 +2367,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>1.2</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="177">
@@ -2369,7 +2375,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.23</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="178">
@@ -2377,7 +2383,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>4.67</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="179">
@@ -2385,7 +2391,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="n">
-        <v>0.92</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="180">
@@ -2393,7 +2399,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>-2.23</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="181">
@@ -2401,7 +2407,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>-2.54</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="182">
@@ -2409,7 +2415,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="n">
-        <v>1.35</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="183">
@@ -2417,7 +2423,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.06</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="184">
@@ -2425,7 +2431,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>-8.96</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="185">
@@ -2433,7 +2439,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="n">
-        <v>6.2</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="186">
@@ -2441,7 +2447,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>5.39</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="187">
@@ -2449,7 +2455,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.22</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="188">
@@ -2457,7 +2463,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.25</v>
+        <v>-8.99</v>
       </c>
     </row>
     <row r="189">
@@ -2465,7 +2471,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="n">
-        <v>1.89</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="190">
@@ -2473,7 +2479,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>-2.84</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="191">
@@ -2481,7 +2487,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>0.87</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="192">
@@ -2489,7 +2495,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="n">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="193">
@@ -2497,7 +2503,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="n">
-        <v>-2.11</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="194">
@@ -2505,7 +2511,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="n">
-        <v>5.97</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="195">
@@ -2513,7 +2519,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>2.75</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="196">
@@ -2521,7 +2527,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="n">
-        <v>3.32</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="197">
@@ -2529,7 +2535,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="198">
@@ -2537,7 +2543,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="n">
-        <v>3.05</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="199">
@@ -2545,7 +2551,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="n">
-        <v>4.24</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="200">
@@ -2553,7 +2559,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.69</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="201">
@@ -2561,7 +2567,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="n">
-        <v>2.04</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="202">
@@ -2569,7 +2575,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="n">
-        <v>1.28</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="203">
@@ -2577,7 +2583,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="n">
-        <v>-4.15</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="204">
@@ -2585,7 +2591,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="n">
-        <v>-7.71</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="205">
@@ -2593,7 +2599,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="n">
-        <v>0.11</v>
+        <v>-1.62</v>
       </c>
     </row>
   </sheetData>
@@ -2620,1582 +2626,1634 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.07</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.07</v>
+        <v>-11.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.99</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.59</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.62</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.11</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.78</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.62</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.31</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.64</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5.85</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.74</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1.61</v>
+        <v>-7.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1.7</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.72</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>-14.82</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.28</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.86</v>
+        <v>-3.52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>4.32</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.9</v>
+        <v>-13.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.83</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.47</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.06</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.6</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>2.12</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.26</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.84</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>1.27</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.45</v>
+        <v>-10.39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>-3.26</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.58</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>-8.94</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.17</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.06</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>3.06</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>1.02</v>
+        <v>-8.89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>-2</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41"/>
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-2.93</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>1.22</v>
+        <v>-7.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.07</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.34</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>-4.69</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.43</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.28</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50"/>
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-12.21</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.34</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.61</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.29</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>3.11</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.57</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56"/>
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-4.41</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>1.05</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>-7.42</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>-3.57</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>7.44</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>-7.72</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62"/>
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-1.32</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>-10.63</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>0.57</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>-4.52</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>-6.67</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>-6.69</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.58</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>-4.9</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>0.46</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>-4.74</v>
+        <v>-9.06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.79</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.32</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>0.26</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>1.28</v>
+        <v>-5.96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.05</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.13</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>1.58</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.01</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82"/>
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-3.04</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83"/>
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.66</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.22</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>1.22</v>
+        <v>-9.22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>3.41</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.17</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>-6.16</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B90"/>
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-8.3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92"/>
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-7.86</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>-6.15</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.71</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.17</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>-13.54</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>1.93</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>-5.4</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>0.72</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>-4.08</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>0.51</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>2.46</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>1.02</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>1.19</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>-8.14</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>0.57</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.56</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108"/>
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-4.07</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109"/>
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-4.87</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.28</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>-4.31</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>-2.14</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.92</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>-4.65</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.15</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>0.79</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.99</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>0.09</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>158</v>
-      </c>
-      <c r="B119"/>
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-7.17</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>1.57</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.73</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.96</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>-10.96</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>-3.25</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>-9.97</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126"/>
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-5.28</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.63</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>-13.31</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2</v>
+        <v>-15.36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>-4.59</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>1.33</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.79</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.02</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>4.28</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.58</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.46</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>-4.49</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>1.12</v>
+        <v>-8.57</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>154</v>
-      </c>
-      <c r="B140"/>
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>67</v>
-      </c>
-      <c r="B141"/>
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>115</v>
-      </c>
-      <c r="B142"/>
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-6.11</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>-4.43</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B144" t="n">
-        <v>-4.87</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>2.05</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>116</v>
-      </c>
-      <c r="B146"/>
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-4.46</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.96</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.15</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B149" t="n">
-        <v>2.4</v>
+        <v>-9.65</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.91</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>0.86</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B152" t="n">
-        <v>0.09</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>127</v>
-      </c>
-      <c r="B153"/>
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-6.2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>1.23</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="B155" t="n">
-        <v>1.85</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.71</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>-3.59</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>-2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>3.42</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="B160" t="n">
-        <v>1.66</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.61</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="B162" t="n">
-        <v>0.04</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B163" t="n">
-        <v>0.26</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>-3.34</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.82</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B166" t="n">
-        <v>0.94</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B167" t="n">
-        <v>-2.99</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.06</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.24</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="B170" t="n">
-        <v>0.14</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.89</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.28</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>1.75</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>-16.27</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.46</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>-2.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B177" t="n">
-        <v>-9.91</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>148</v>
-      </c>
-      <c r="B178"/>
+        <v>178</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-1.18</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.02</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>-2.61</v>
+        <v>-3.99</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.18</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.63</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>-8.53</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.62</v>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.78</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>160</v>
-      </c>
-      <c r="B187"/>
+        <v>187</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-5.06</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>161</v>
-      </c>
-      <c r="B188"/>
+        <v>188</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-4.8</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="B189" t="n">
-        <v>-13.43</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>0.16</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>0.15</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B192" t="n">
-        <v>-4.81</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B193" t="n">
-        <v>1.83</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="B194" t="n">
-        <v>0.85</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>0.67</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>123</v>
-      </c>
-      <c r="B196"/>
+        <v>196</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-2.09</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="B197" t="n">
-        <v>-5.57</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B198" t="n">
-        <v>4.03</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>26</v>
-      </c>
-      <c r="B199"/>
+        <v>199</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-7.25</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>122</v>
-      </c>
-      <c r="B200"/>
+        <v>200</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-1.56</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.47</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="B202" t="n">
-        <v>1.57</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B203" t="n">
-        <v>0.78</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>69</v>
-      </c>
-      <c r="B204"/>
+        <v>204</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-3.42</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="B205" t="n">
-        <v>0.7</v>
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
